--- a/Result/Q0_1_particle_count_rmse_comparison.xlsx
+++ b/Result/Q0_1_particle_count_rmse_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.179624366144326</v>
+        <v>3.396781449327992</v>
       </c>
       <c r="C2" t="n">
-        <v>4.752822792863047</v>
+        <v>3.715498410685984</v>
       </c>
       <c r="D2" t="n">
-        <v>2.577365304957544</v>
+        <v>3.587092399893759</v>
       </c>
       <c r="E2" t="n">
-        <v>1.283534856045267</v>
+        <v>2.560324588656751</v>
       </c>
       <c r="F2" t="n">
-        <v>2.295633861294924</v>
+        <v>3.41961008813053</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>3.706280885775858</v>
+        <v>2.234969441052847</v>
       </c>
       <c r="C3" t="n">
-        <v>2.605727071568654</v>
+        <v>3.09490381103471</v>
       </c>
       <c r="D3" t="n">
-        <v>1.352572584710108</v>
+        <v>3.44917389787401</v>
       </c>
       <c r="E3" t="n">
-        <v>1.295400964224198</v>
+        <v>1.694785166637352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.852684884026252</v>
+        <v>2.197814579155574</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9221289860888406</v>
+        <v>1.803110381541863</v>
       </c>
       <c r="C4" t="n">
-        <v>2.608905077148908</v>
+        <v>2.539937565579926</v>
       </c>
       <c r="D4" t="n">
-        <v>2.094627911489174</v>
+        <v>3.355028692706826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9509840434771144</v>
+        <v>1.444930830124354</v>
       </c>
       <c r="F4" t="n">
-        <v>1.366849827765833</v>
+        <v>1.769888813166332</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9666366055598425</v>
+        <v>1.490404987385676</v>
       </c>
       <c r="C5" t="n">
-        <v>1.070152204661398</v>
+        <v>1.98892179508162</v>
       </c>
       <c r="D5" t="n">
-        <v>2.731021040556568</v>
+        <v>3.135468477348919</v>
       </c>
       <c r="E5" t="n">
-        <v>1.074180879813134</v>
+        <v>1.267352143243712</v>
       </c>
       <c r="F5" t="n">
-        <v>1.001423819328884</v>
+        <v>1.445862581025042</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>1.046318845751045</v>
+        <v>1.269756848241601</v>
       </c>
       <c r="C6" t="n">
-        <v>1.051924959432857</v>
+        <v>1.606988246308942</v>
       </c>
       <c r="D6" t="n">
-        <v>2.810418625455406</v>
+        <v>3.01557907328573</v>
       </c>
       <c r="E6" t="n">
-        <v>0.913648776711105</v>
+        <v>1.199022675856521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9724148138261324</v>
+        <v>1.211575885365718</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>1.02045900666068</v>
+        <v>1.196675082665221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8149029420366213</v>
+        <v>1.432993529110761</v>
       </c>
       <c r="D7" t="n">
-        <v>1.307671955047827</v>
+        <v>2.934607968040498</v>
       </c>
       <c r="E7" t="n">
-        <v>1.179634083716352</v>
+        <v>1.197532605561919</v>
       </c>
       <c r="F7" t="n">
-        <v>1.001296263218617</v>
+        <v>1.187224653054956</v>
       </c>
     </row>
   </sheetData>
